--- a/output-PartB3.xlsx
+++ b/output-PartB3.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="output-PartB3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -867,11 +867,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4244,6 +4244,18 @@
         <v>313.42431304842222</v>
       </c>
     </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <f xml:space="preserve"> 17916.01-17807.03</f>
+        <v>108.97999999999956</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <f>422.41-313.42</f>
+        <v>108.99000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
